--- a/ormweb/static/src/assets/SampleTemplate/KRI_Template.xlsx
+++ b/ormweb/static/src/assets/SampleTemplate/KRI_Template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://secureeyes-my.sharepoint.com/personal/bhubanananda_tripathy_secureyes_net/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SE-GRC-RiskTrac\orm\web\src\assets\SampleTemplate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="8_{3C687B32-2C14-4C10-A689-EB8443CF77B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F3D0090B-7D0D-4A4B-BB91-A774A11E41B2}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94CC9A36-4579-4A8B-A83B-CCAAD20943B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{25B053BD-E6C9-42B4-8577-E2164D9ECEFE}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t xml:space="preserve">GroupName </t>
   </si>
@@ -66,6 +66,9 @@
   </si>
   <si>
     <t xml:space="preserve">Threshold Value5 </t>
+  </si>
+  <si>
+    <t>Inherent Risk</t>
   </si>
 </sst>
 </file>
@@ -468,21 +471,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08683CCC-AD14-4D58-A6E4-AB4C2745C40A}">
-  <dimension ref="A1:J95"/>
+  <dimension ref="A1:K95"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22" bestFit="1" customWidth="1"/>
-    <col min="6" max="10" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.44140625" customWidth="1"/>
+    <col min="5" max="5" width="35.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22" bestFit="1" customWidth="1"/>
+    <col min="7" max="11" width="17.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -493,28 +499,31 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -525,8 +534,9 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -537,8 +547,9 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K3" s="1"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -549,8 +560,9 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K4" s="1"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -561,8 +573,9 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -573,8 +586,9 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -585,8 +599,9 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -597,8 +612,9 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -609,8 +625,9 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -621,8 +638,9 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K10" s="1"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -633,8 +651,9 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K11" s="1"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -645,8 +664,9 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K12" s="1"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -657,8 +677,9 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K13" s="1"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -669,8 +690,9 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K14" s="1"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -681,8 +703,9 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K15" s="1"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -693,8 +716,9 @@
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K16" s="1"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -705,8 +729,9 @@
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K17" s="1"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -717,8 +742,9 @@
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K18" s="1"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -729,8 +755,9 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K19" s="1"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -741,8 +768,9 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K20" s="1"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -753,8 +781,9 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K21" s="1"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -765,8 +794,9 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K22" s="1"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -777,8 +807,9 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K23" s="1"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -789,8 +820,9 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K24" s="1"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -801,8 +833,9 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K25" s="1"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -813,8 +846,9 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K26" s="1"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -825,8 +859,9 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K27" s="1"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -837,8 +872,9 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K28" s="1"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -849,8 +885,9 @@
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K29" s="1"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -861,8 +898,9 @@
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K30" s="1"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -873,8 +911,9 @@
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K31" s="1"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -885,8 +924,9 @@
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K32" s="1"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -897,8 +937,9 @@
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K33" s="1"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -909,8 +950,9 @@
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K34" s="1"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -921,8 +963,9 @@
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K35" s="1"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -933,8 +976,9 @@
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K36" s="1"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -945,8 +989,9 @@
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K37" s="1"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -957,8 +1002,9 @@
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K38" s="1"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -969,8 +1015,9 @@
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K39" s="1"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -981,8 +1028,9 @@
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K40" s="1"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -993,8 +1041,9 @@
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K41" s="1"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -1005,8 +1054,9 @@
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K42" s="1"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -1017,8 +1067,9 @@
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K43" s="1"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -1029,8 +1080,9 @@
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K44" s="1"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -1041,8 +1093,9 @@
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K45" s="1"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -1053,8 +1106,9 @@
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K46" s="1"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -1065,8 +1119,9 @@
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K47" s="1"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -1077,8 +1132,9 @@
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K48" s="1"/>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -1089,8 +1145,9 @@
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K49" s="1"/>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -1101,8 +1158,9 @@
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K50" s="1"/>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -1113,8 +1171,9 @@
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K51" s="1"/>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -1125,8 +1184,9 @@
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K52" s="1"/>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -1137,8 +1197,9 @@
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K53" s="1"/>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -1149,8 +1210,9 @@
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K54" s="1"/>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -1161,8 +1223,9 @@
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K55" s="1"/>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -1173,8 +1236,9 @@
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K56" s="1"/>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -1185,8 +1249,9 @@
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K57" s="1"/>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -1197,8 +1262,9 @@
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K58" s="1"/>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -1209,8 +1275,9 @@
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
       <c r="J59" s="1"/>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K59" s="1"/>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -1221,8 +1288,9 @@
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
       <c r="J60" s="1"/>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K60" s="1"/>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -1233,8 +1301,9 @@
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
       <c r="J61" s="1"/>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K61" s="1"/>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -1245,8 +1314,9 @@
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
       <c r="J62" s="1"/>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K62" s="1"/>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -1257,8 +1327,9 @@
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
       <c r="J63" s="1"/>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K63" s="1"/>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -1269,8 +1340,9 @@
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
       <c r="J64" s="1"/>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K64" s="1"/>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -1281,8 +1353,9 @@
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
       <c r="J65" s="1"/>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K65" s="1"/>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -1293,8 +1366,9 @@
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
       <c r="J66" s="1"/>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K66" s="1"/>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -1305,8 +1379,9 @@
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
       <c r="J67" s="1"/>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K67" s="1"/>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -1317,8 +1392,9 @@
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
       <c r="J68" s="1"/>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K68" s="1"/>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -1329,8 +1405,9 @@
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
       <c r="J69" s="1"/>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K69" s="1"/>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -1341,8 +1418,9 @@
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
       <c r="J70" s="1"/>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K70" s="1"/>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -1353,8 +1431,9 @@
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
       <c r="J71" s="1"/>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K71" s="1"/>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -1365,8 +1444,9 @@
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
       <c r="J72" s="1"/>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K72" s="1"/>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -1377,8 +1457,9 @@
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
       <c r="J73" s="1"/>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K73" s="1"/>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -1389,8 +1470,9 @@
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
       <c r="J74" s="1"/>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K74" s="1"/>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -1401,8 +1483,9 @@
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
       <c r="J75" s="1"/>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K75" s="1"/>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -1413,8 +1496,9 @@
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
       <c r="J76" s="1"/>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K76" s="1"/>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -1425,8 +1509,9 @@
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
       <c r="J77" s="1"/>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K77" s="1"/>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -1437,8 +1522,9 @@
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
       <c r="J78" s="1"/>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K78" s="1"/>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -1449,8 +1535,9 @@
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
       <c r="J79" s="1"/>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K79" s="1"/>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -1461,8 +1548,9 @@
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
       <c r="J80" s="1"/>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K80" s="1"/>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -1473,8 +1561,9 @@
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
       <c r="J81" s="1"/>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K81" s="1"/>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -1485,8 +1574,9 @@
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
       <c r="J82" s="1"/>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K82" s="1"/>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -1497,8 +1587,9 @@
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
       <c r="J83" s="1"/>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K83" s="1"/>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -1509,8 +1600,9 @@
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
       <c r="J84" s="1"/>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K84" s="1"/>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -1521,8 +1613,9 @@
       <c r="H85" s="1"/>
       <c r="I85" s="1"/>
       <c r="J85" s="1"/>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K85" s="1"/>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -1533,8 +1626,9 @@
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
       <c r="J86" s="1"/>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K86" s="1"/>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -1545,8 +1639,9 @@
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
       <c r="J87" s="1"/>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K87" s="1"/>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -1557,8 +1652,9 @@
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
       <c r="J88" s="1"/>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K88" s="1"/>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -1569,8 +1665,9 @@
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
       <c r="J89" s="1"/>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K89" s="1"/>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -1581,8 +1678,9 @@
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
       <c r="J90" s="1"/>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K90" s="1"/>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -1593,8 +1691,9 @@
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
       <c r="J91" s="1"/>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K91" s="1"/>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -1605,8 +1704,9 @@
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
       <c r="J92" s="1"/>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K92" s="1"/>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -1617,8 +1717,9 @@
       <c r="H93" s="1"/>
       <c r="I93" s="1"/>
       <c r="J93" s="1"/>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K93" s="1"/>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -1629,8 +1730,9 @@
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
       <c r="J94" s="1"/>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K94" s="1"/>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -1641,6 +1743,7 @@
       <c r="H95" s="1"/>
       <c r="I95" s="1"/>
       <c r="J95" s="1"/>
+      <c r="K95" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ormweb/static/src/assets/SampleTemplate/KRI_Template.xlsx
+++ b/ormweb/static/src/assets/SampleTemplate/KRI_Template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SE-GRC-RiskTrac\orm\web\src\assets\SampleTemplate\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://secureeyes-my.sharepoint.com/personal/bhubanananda_tripathy_secureyes_net/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94CC9A36-4579-4A8B-A83B-CCAAD20943B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="8_{3C687B32-2C14-4C10-A689-EB8443CF77B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F3D0090B-7D0D-4A4B-BB91-A774A11E41B2}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{25B053BD-E6C9-42B4-8577-E2164D9ECEFE}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t xml:space="preserve">GroupName </t>
   </si>
@@ -66,9 +66,6 @@
   </si>
   <si>
     <t xml:space="preserve">Threshold Value5 </t>
-  </si>
-  <si>
-    <t>Inherent Risk</t>
   </si>
 </sst>
 </file>
@@ -471,24 +468,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08683CCC-AD14-4D58-A6E4-AB4C2745C40A}">
-  <dimension ref="A1:K95"/>
+  <dimension ref="A1:J95"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.44140625" customWidth="1"/>
-    <col min="5" max="5" width="35.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22" bestFit="1" customWidth="1"/>
-    <col min="7" max="11" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22" bestFit="1" customWidth="1"/>
+    <col min="6" max="10" width="17.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -499,31 +493,28 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -534,9 +525,8 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -547,9 +537,8 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -560,9 +549,8 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -573,9 +561,8 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -586,9 +573,8 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -599,9 +585,8 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -612,9 +597,8 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -625,9 +609,8 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -638,9 +621,8 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -651,9 +633,8 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -664,9 +645,8 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -677,9 +657,8 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -690,9 +669,8 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -703,9 +681,8 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -716,9 +693,8 @@
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -729,9 +705,8 @@
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -742,9 +717,8 @@
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -755,9 +729,8 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -768,9 +741,8 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -781,9 +753,8 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -794,9 +765,8 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -807,9 +777,8 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -820,9 +789,8 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -833,9 +801,8 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -846,9 +813,8 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -859,9 +825,8 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -872,9 +837,8 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -885,9 +849,8 @@
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -898,9 +861,8 @@
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -911,9 +873,8 @@
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -924,9 +885,8 @@
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -937,9 +897,8 @@
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -950,9 +909,8 @@
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -963,9 +921,8 @@
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -976,9 +933,8 @@
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -989,9 +945,8 @@
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -1002,9 +957,8 @@
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -1015,9 +969,8 @@
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -1028,9 +981,8 @@
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
-      <c r="K40" s="1"/>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -1041,9 +993,8 @@
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
-      <c r="K41" s="1"/>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -1054,9 +1005,8 @@
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
-      <c r="K42" s="1"/>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -1067,9 +1017,8 @@
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
-      <c r="K43" s="1"/>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -1080,9 +1029,8 @@
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
-      <c r="K44" s="1"/>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -1093,9 +1041,8 @@
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
-      <c r="K45" s="1"/>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -1106,9 +1053,8 @@
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
-      <c r="K46" s="1"/>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -1119,9 +1065,8 @@
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
-      <c r="K47" s="1"/>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -1132,9 +1077,8 @@
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
-      <c r="K48" s="1"/>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -1145,9 +1089,8 @@
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
-      <c r="K49" s="1"/>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -1158,9 +1101,8 @@
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
-      <c r="K50" s="1"/>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -1171,9 +1113,8 @@
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
-      <c r="K51" s="1"/>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -1184,9 +1125,8 @@
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
-      <c r="K52" s="1"/>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -1197,9 +1137,8 @@
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
-      <c r="K53" s="1"/>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -1210,9 +1149,8 @@
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
-      <c r="K54" s="1"/>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -1223,9 +1161,8 @@
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
-      <c r="K55" s="1"/>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -1236,9 +1173,8 @@
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
-      <c r="K56" s="1"/>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -1249,9 +1185,8 @@
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
-      <c r="K57" s="1"/>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -1262,9 +1197,8 @@
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
-      <c r="K58" s="1"/>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -1275,9 +1209,8 @@
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
       <c r="J59" s="1"/>
-      <c r="K59" s="1"/>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -1288,9 +1221,8 @@
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
       <c r="J60" s="1"/>
-      <c r="K60" s="1"/>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -1301,9 +1233,8 @@
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
       <c r="J61" s="1"/>
-      <c r="K61" s="1"/>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -1314,9 +1245,8 @@
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
       <c r="J62" s="1"/>
-      <c r="K62" s="1"/>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -1327,9 +1257,8 @@
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
       <c r="J63" s="1"/>
-      <c r="K63" s="1"/>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -1340,9 +1269,8 @@
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
       <c r="J64" s="1"/>
-      <c r="K64" s="1"/>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -1353,9 +1281,8 @@
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
       <c r="J65" s="1"/>
-      <c r="K65" s="1"/>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -1366,9 +1293,8 @@
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
       <c r="J66" s="1"/>
-      <c r="K66" s="1"/>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -1379,9 +1305,8 @@
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
       <c r="J67" s="1"/>
-      <c r="K67" s="1"/>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -1392,9 +1317,8 @@
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
       <c r="J68" s="1"/>
-      <c r="K68" s="1"/>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -1405,9 +1329,8 @@
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
       <c r="J69" s="1"/>
-      <c r="K69" s="1"/>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -1418,9 +1341,8 @@
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
       <c r="J70" s="1"/>
-      <c r="K70" s="1"/>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -1431,9 +1353,8 @@
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
       <c r="J71" s="1"/>
-      <c r="K71" s="1"/>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -1444,9 +1365,8 @@
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
       <c r="J72" s="1"/>
-      <c r="K72" s="1"/>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -1457,9 +1377,8 @@
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
       <c r="J73" s="1"/>
-      <c r="K73" s="1"/>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -1470,9 +1389,8 @@
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
       <c r="J74" s="1"/>
-      <c r="K74" s="1"/>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -1483,9 +1401,8 @@
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
       <c r="J75" s="1"/>
-      <c r="K75" s="1"/>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -1496,9 +1413,8 @@
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
       <c r="J76" s="1"/>
-      <c r="K76" s="1"/>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -1509,9 +1425,8 @@
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
       <c r="J77" s="1"/>
-      <c r="K77" s="1"/>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -1522,9 +1437,8 @@
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
       <c r="J78" s="1"/>
-      <c r="K78" s="1"/>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -1535,9 +1449,8 @@
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
       <c r="J79" s="1"/>
-      <c r="K79" s="1"/>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -1548,9 +1461,8 @@
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
       <c r="J80" s="1"/>
-      <c r="K80" s="1"/>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -1561,9 +1473,8 @@
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
       <c r="J81" s="1"/>
-      <c r="K81" s="1"/>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -1574,9 +1485,8 @@
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
       <c r="J82" s="1"/>
-      <c r="K82" s="1"/>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -1587,9 +1497,8 @@
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
       <c r="J83" s="1"/>
-      <c r="K83" s="1"/>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -1600,9 +1509,8 @@
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
       <c r="J84" s="1"/>
-      <c r="K84" s="1"/>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -1613,9 +1521,8 @@
       <c r="H85" s="1"/>
       <c r="I85" s="1"/>
       <c r="J85" s="1"/>
-      <c r="K85" s="1"/>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -1626,9 +1533,8 @@
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
       <c r="J86" s="1"/>
-      <c r="K86" s="1"/>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -1639,9 +1545,8 @@
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
       <c r="J87" s="1"/>
-      <c r="K87" s="1"/>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -1652,9 +1557,8 @@
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
       <c r="J88" s="1"/>
-      <c r="K88" s="1"/>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -1665,9 +1569,8 @@
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
       <c r="J89" s="1"/>
-      <c r="K89" s="1"/>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -1678,9 +1581,8 @@
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
       <c r="J90" s="1"/>
-      <c r="K90" s="1"/>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -1691,9 +1593,8 @@
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
       <c r="J91" s="1"/>
-      <c r="K91" s="1"/>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -1704,9 +1605,8 @@
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
       <c r="J92" s="1"/>
-      <c r="K92" s="1"/>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -1717,9 +1617,8 @@
       <c r="H93" s="1"/>
       <c r="I93" s="1"/>
       <c r="J93" s="1"/>
-      <c r="K93" s="1"/>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -1730,9 +1629,8 @@
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
       <c r="J94" s="1"/>
-      <c r="K94" s="1"/>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -1743,7 +1641,6 @@
       <c r="H95" s="1"/>
       <c r="I95" s="1"/>
       <c r="J95" s="1"/>
-      <c r="K95" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
